--- a/docs/StructureDefinition-ProcedureRadiology.xlsx
+++ b/docs/StructureDefinition-ProcedureRadiology.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ProcedureRadiology.xlsx
+++ b/docs/StructureDefinition-ProcedureRadiology.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.10</t>
+    <t>1.4.15</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T16:44:16+00:00</t>
+    <t>2025-04-30T18:27:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ProcedureRadiology.xlsx
+++ b/docs/StructureDefinition-ProcedureRadiology.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ProcedureRadiology.xlsx
+++ b/docs/StructureDefinition-ProcedureRadiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ProcedureRadiology.xlsx
+++ b/docs/StructureDefinition-ProcedureRadiology.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ProcedureRadiology.xlsx
+++ b/docs/StructureDefinition-ProcedureRadiology.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1003,7 +1003,16 @@
     <t>1510: reference based on RAD/NUC MED PATIENT - NAME (70-.01) if 70-2 &gt; 70.02</t>
   </si>
   <si>
-    <t>Patient.RadiologyPatient.PatientIEN,Rad.RadiologyExam.PatientIEN,Rad.RadiologyExamActivityLog.PatientIEN,Rad.RadiologyExamContrastMedia.PatientIEN,Rad.RadiologyExamCPTModifier.PatientIEN,Rad.RadiologyExamMedication.PatientIEN,Rad.RadiologyExamSecondaryDiagnosticCode.PatientIEN,Rad.RadiologyExamStatusList.PatientIEN,Rad.RadiologyFilmRegistry.PatientIEN,Rad.RadiologyRegisteredExam.PatientIEN</t>
+    <t>Patient.RadiologyPatient.PatientIEN
+Rad.RadiologyExam.PatientIEN
+Rad.RadiologyExamActivityLog.PatientIEN
+Rad.RadiologyExamContrastMedia.PatientIEN
+Rad.RadiologyExamCPTModifier.PatientIEN
+Rad.RadiologyExamMedication.PatientIEN
+Rad.RadiologyExamSecondaryDiagnosticCode.PatientIEN
+Rad.RadiologyExamStatusList.PatientIEN
+Rad.RadiologyFilmRegistry.PatientIEN
+Rad.RadiologyRegisteredExam.PatientIEN</t>
   </si>
   <si>
     <t>Event.subject</t>
@@ -1097,7 +1106,15 @@
     <t>1512: source value based on REGISTERED EXAMS - EXAM DATE (70.02-.01)</t>
   </si>
   <si>
-    <t>Rad.RadiologyExam.ExamDateTime,Rad.RadiologyExamActivityLog.ExamDateTime,Rad.RadiologyExamContrastMedia.ExamDateTime,Rad.RadiologyExamCPTModifier.ExamDateTime,Rad.RadiologyExamMedication.ExamDateTime,Rad.RadiologyExamSecondaryDiagnosticCode.ExamDateTime,Rad.RadiologyExamStatusList.ExamDateTime,Rad.RadiologyExamTechnologist.ExamDateTime,Rad.RadiologyRegisteredExam.ExamDateTime</t>
+    <t>Rad.RadiologyExam.ExamDateTime
+Rad.RadiologyExamActivityLog.ExamDateTime
+Rad.RadiologyExamContrastMedia.ExamDateTime
+Rad.RadiologyExamCPTModifier.ExamDateTime
+Rad.RadiologyExamMedication.ExamDateTime
+Rad.RadiologyExamSecondaryDiagnosticCode.ExamDateTime
+Rad.RadiologyExamStatusList.ExamDateTime
+Rad.RadiologyExamTechnologist.ExamDateTime
+Rad.RadiologyRegisteredExam.ExamDateTime</t>
   </si>
   <si>
     <t>RadOrder.Result.FromTime</t>
@@ -1282,7 +1299,8 @@
 Dim.RadiologyLocation.LocationIEN</t>
   </si>
   <si>
-    <t>RadOrder.Result.EnteredAt,RadOrder.Result.PerformedAt</t>
+    <t>RadOrder.Result.EnteredAt
+RadOrder.Result.PerformedAt</t>
   </si>
   <si>
     <t>.participation[typeCode=LOC].role[classCode=SDLOC]</t>
@@ -1937,8 +1955,8 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="162.13671875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="46.125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="49.859375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="44.26953125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="122.22265625" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="31.65234375" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-ProcedureRadiology.xlsx
+++ b/docs/StructureDefinition-ProcedureRadiology.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ProcedureRadiology.xlsx
+++ b/docs/StructureDefinition-ProcedureRadiology.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
